--- a/Milestone3/ExcelSheets/Initial_Simulation_Block_Times.xlsx
+++ b/Milestone3/ExcelSheets/Initial_Simulation_Block_Times.xlsx
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16279.24413865004</v>
+        <v>727.9416574771241</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16340.79604811089</v>
+        <v>861.900647792748</v>
       </c>
       <c r="D3" t="n">
         <v>20000</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15546.85604967959</v>
+        <v>605.7374535646273</v>
       </c>
       <c r="D4" t="n">
         <v>20000</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16267.8748970938</v>
+        <v>529.0134695416176</v>
       </c>
       <c r="D5" t="n">
         <v>20000</v>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14745.2337956627</v>
+        <v>1149.285884877349</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15496.31753855501</v>
+        <v>881.1899477945285</v>
       </c>
       <c r="D7" t="n">
         <v>20000</v>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>16334.21942178191</v>
+        <v>365.5657985344781</v>
       </c>
       <c r="D8" t="n">
         <v>20000</v>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>15256.67617730003</v>
+        <v>839.7634093370357</v>
       </c>
       <c r="D9" t="n">
         <v>20000</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>15566.72607899518</v>
+        <v>1033.278187629604</v>
       </c>
       <c r="D10" t="n">
         <v>20000</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>15927.72737128504</v>
+        <v>724.4212256254648</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15776.16715171142</v>
+        <v>771.8097682174578</v>
       </c>
       <c r="D12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>515.3174745864641</v>
+        <v>221.6498014807208</v>
       </c>
       <c r="D13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14">
@@ -629,14 +629,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CI:+-368.284</t>
+          <t>CI:+-158.408</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15407.88276377333</v>
+        <v>613.4022514911256</v>
       </c>
       <c r="D14" t="n">
-        <v>16144.45153964951</v>
+        <v>930.2172849437899</v>
       </c>
     </row>
     <row r="15">
@@ -645,14 +645,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PI:+-1336.130</t>
+          <t>PI:+-574.700</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14440.0367896506</v>
+        <v>197.1096190699752</v>
       </c>
       <c r="D15" t="n">
-        <v>17112.29751377224</v>
+        <v>1346.50991736494</v>
       </c>
     </row>
   </sheetData>
